--- a/Info/Case Log - Copy.xlsx
+++ b/Info/Case Log - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://globalpsa-my.sharepoint.com/personal/kahjyun_globalpsa_com/Documents/Documents/Projects/DO - HACKATHON/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f296fcd61b6b9eeb/Documents/GitHub/psa_team_mediocre/Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1945" documentId="8_{223F16F2-6A1A-408E-85BD-F437F71675ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{047E7A1D-5227-4A9C-BD82-198BA6DACCFD}"/>
   <bookViews>
-    <workbookView xWindow="47385" yWindow="2490" windowWidth="20565" windowHeight="16245" xr2:uid="{32B2E6D0-2B8C-49A5-A180-AE1BFA1867B9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32B2E6D0-2B8C-49A5-A180-AE1BFA1867B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="6" r:id="rId1"/>
@@ -3086,7 +3086,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3140,7 +3140,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3481,20 +3481,20 @@
   <dimension ref="A1:H329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="F314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F324" sqref="F324"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="18.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="85.5703125" customWidth="1"/>
-    <col min="6" max="6" width="255.5703125" customWidth="1"/>
-    <col min="7" max="7" width="128.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="167.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="85.5546875" customWidth="1"/>
+    <col min="6" max="6" width="255.5546875" customWidth="1"/>
+    <col min="7" max="7" width="128.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="167.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="29.25">
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1">
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1">
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1">
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1">
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1">
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>166</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1">
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1">
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1">
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1">
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1">
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1">
+    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" customHeight="1">
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1">
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1">
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>166</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1">
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1">
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1">
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1">
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1">
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>166</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1">
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1">
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1">
+    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>42</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1">
+    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>42</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1">
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1">
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1">
+    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" customHeight="1">
+    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>28</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" customHeight="1">
+    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" customHeight="1">
+    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1">
+    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>28</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>42</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1">
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1">
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>42</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>42</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>28</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" customHeight="1">
+    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>28</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" customHeight="1">
+    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" customHeight="1">
+    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>42</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" customHeight="1">
+    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>28</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" customHeight="1">
+    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" customHeight="1">
+    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" customHeight="1">
+    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" customHeight="1">
+    <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" customHeight="1">
+    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" customHeight="1">
+    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" customHeight="1">
+    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>42</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" customHeight="1">
+    <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>42</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" customHeight="1">
+    <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" customHeight="1">
+    <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" customHeight="1">
+    <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>28</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15" customHeight="1">
+    <row r="112" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" customHeight="1">
+    <row r="113" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>28</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" customHeight="1">
+    <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" customHeight="1">
+    <row r="115" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>166</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" customHeight="1">
+    <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>42</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" customHeight="1">
+    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15" customHeight="1">
+    <row r="118" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" customHeight="1">
+    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" customHeight="1">
+    <row r="120" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>28</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" customHeight="1">
+    <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" customHeight="1">
+    <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>19</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" customHeight="1">
+    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15" customHeight="1">
+    <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15" customHeight="1">
+    <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" customHeight="1">
+    <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>19</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" customHeight="1">
+    <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>42</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" customHeight="1">
+    <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>19</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" customHeight="1">
+    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15" customHeight="1">
+    <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" customHeight="1">
+    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>28</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" customHeight="1">
+    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15" customHeight="1">
+    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" customHeight="1">
+    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>42</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15" customHeight="1">
+    <row r="135" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15" customHeight="1">
+    <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15" customHeight="1">
+    <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>42</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15" customHeight="1">
+    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15" customHeight="1">
+    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>42</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15" customHeight="1">
+    <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15" customHeight="1">
+    <row r="141" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15" customHeight="1">
+    <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>28</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15" customHeight="1">
+    <row r="143" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>28</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15" customHeight="1">
+    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15" customHeight="1">
+    <row r="145" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15" customHeight="1">
+    <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>42</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15" customHeight="1">
+    <row r="147" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>28</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15" customHeight="1">
+    <row r="148" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15" customHeight="1">
+    <row r="149" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>42</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15" customHeight="1">
+    <row r="150" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="15" customHeight="1">
+    <row r="151" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="15" customHeight="1">
+    <row r="152" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>19</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15" customHeight="1">
+    <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>28</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="15" customHeight="1">
+    <row r="154" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="15" customHeight="1">
+    <row r="155" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15" customHeight="1">
+    <row r="156" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>19</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15" customHeight="1">
+    <row r="157" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>19</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15" customHeight="1">
+    <row r="158" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>19</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15" customHeight="1">
+    <row r="159" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15" customHeight="1">
+    <row r="160" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>28</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15" customHeight="1">
+    <row r="161" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15" customHeight="1">
+    <row r="162" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>42</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15" customHeight="1">
+    <row r="163" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="15" customHeight="1">
+    <row r="164" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="15" customHeight="1">
+    <row r="165" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="15" customHeight="1">
+    <row r="166" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>42</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="15" customHeight="1">
+    <row r="167" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="15" customHeight="1">
+    <row r="168" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>42</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="15" customHeight="1">
+    <row r="169" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15" customHeight="1">
+    <row r="170" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>42</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15" customHeight="1">
+    <row r="171" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15" customHeight="1">
+    <row r="172" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>19</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15" customHeight="1">
+    <row r="173" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>19</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="15" customHeight="1">
+    <row r="174" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15" customHeight="1">
+    <row r="175" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="15" customHeight="1">
+    <row r="176" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15" customHeight="1">
+    <row r="177" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="15" customHeight="1">
+    <row r="178" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>19</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="15" customHeight="1">
+    <row r="179" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>28</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="15" customHeight="1">
+    <row r="180" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>42</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="15" customHeight="1">
+    <row r="181" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>28</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="15" customHeight="1">
+    <row r="182" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>19</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="15" customHeight="1">
+    <row r="183" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>42</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="15" customHeight="1">
+    <row r="184" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="15" customHeight="1">
+    <row r="185" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>19</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="15" customHeight="1">
+    <row r="186" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="15" customHeight="1">
+    <row r="187" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>166</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="15" customHeight="1">
+    <row r="188" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="15" customHeight="1">
+    <row r="189" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>28</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="15" customHeight="1">
+    <row r="190" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>42</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="15" customHeight="1">
+    <row r="191" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>42</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="15" customHeight="1">
+    <row r="192" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15" customHeight="1">
+    <row r="193" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>19</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="15" customHeight="1">
+    <row r="194" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>19</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="15" customHeight="1">
+    <row r="195" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>42</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="15" customHeight="1">
+    <row r="196" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="15" customHeight="1">
+    <row r="197" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>42</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="15" customHeight="1">
+    <row r="198" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>42</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="15" customHeight="1">
+    <row r="199" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>28</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="15" customHeight="1">
+    <row r="200" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>19</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="15" customHeight="1">
+    <row r="201" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>42</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="15" customHeight="1">
+    <row r="202" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>19</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="15" customHeight="1">
+    <row r="203" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>19</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="15" customHeight="1">
+    <row r="204" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>42</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="15" customHeight="1">
+    <row r="205" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>19</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="15" customHeight="1">
+    <row r="206" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>8</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="15" customHeight="1">
+    <row r="207" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>19</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="15" customHeight="1">
+    <row r="208" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="15" customHeight="1">
+    <row r="209" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="15" customHeight="1">
+    <row r="210" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="15" customHeight="1">
+    <row r="211" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>42</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="15" customHeight="1">
+    <row r="212" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="15" customHeight="1">
+    <row r="213" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>28</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="15" customHeight="1">
+    <row r="214" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="15" customHeight="1">
+    <row r="215" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>8</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="15" customHeight="1">
+    <row r="216" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>19</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="15" customHeight="1">
+    <row r="217" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="15" customHeight="1">
+    <row r="218" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>19</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="15" customHeight="1">
+    <row r="219" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>42</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="15" customHeight="1">
+    <row r="220" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>19</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="15" customHeight="1">
+    <row r="221" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>19</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="15" customHeight="1">
+    <row r="222" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>28</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="15" customHeight="1">
+    <row r="223" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>8</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="15" customHeight="1">
+    <row r="224" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>19</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="15" customHeight="1">
+    <row r="225" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="15" customHeight="1">
+    <row r="226" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>8</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="15" customHeight="1">
+    <row r="227" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>28</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="15" customHeight="1">
+    <row r="228" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>19</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="15" customHeight="1">
+    <row r="229" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>28</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="15" customHeight="1">
+    <row r="230" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>19</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="15" customHeight="1">
+    <row r="231" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>8</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="15" customHeight="1">
+    <row r="232" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="15" customHeight="1">
+    <row r="233" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>19</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="15" customHeight="1">
+    <row r="234" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>42</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="15" customHeight="1">
+    <row r="235" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>19</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="15" customHeight="1">
+    <row r="236" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>19</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="15" customHeight="1">
+    <row r="237" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="15" customHeight="1">
+    <row r="238" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>19</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="15" customHeight="1">
+    <row r="239" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>8</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="15" customHeight="1">
+    <row r="240" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>19</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="15" customHeight="1">
+    <row r="241" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>19</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="15" customHeight="1">
+    <row r="242" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>166</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="15" customHeight="1">
+    <row r="243" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="15" customHeight="1">
+    <row r="244" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>19</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="15" customHeight="1">
+    <row r="245" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="15" customHeight="1">
+    <row r="246" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>19</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="15" customHeight="1">
+    <row r="247" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>42</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="15" customHeight="1">
+    <row r="248" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>42</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="15" customHeight="1">
+    <row r="249" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="15" customHeight="1">
+    <row r="250" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>19</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="15" customHeight="1">
+    <row r="251" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="15" customHeight="1">
+    <row r="252" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>19</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="15" customHeight="1">
+    <row r="253" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>166</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="15" customHeight="1">
+    <row r="254" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>8</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="15" customHeight="1">
+    <row r="255" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>8</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="15" customHeight="1">
+    <row r="256" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>19</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="15" customHeight="1">
+    <row r="257" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>8</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="15" customHeight="1">
+    <row r="258" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>8</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="15" customHeight="1">
+    <row r="259" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="15" customHeight="1">
+    <row r="260" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>8</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="15" customHeight="1">
+    <row r="261" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>42</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="15" customHeight="1">
+    <row r="262" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>28</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="15" customHeight="1">
+    <row r="263" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>8</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="15" customHeight="1">
+    <row r="264" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>166</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="15" customHeight="1">
+    <row r="265" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>8</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="15" customHeight="1">
+    <row r="266" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>8</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="15" customHeight="1">
+    <row r="267" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>28</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="15" customHeight="1">
+    <row r="268" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>42</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="15" customHeight="1">
+    <row r="269" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>28</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="15" customHeight="1">
+    <row r="270" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>8</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="15" customHeight="1">
+    <row r="271" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>166</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="15" customHeight="1">
+    <row r="272" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="15" customHeight="1">
+    <row r="273" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>42</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="15" customHeight="1">
+    <row r="274" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>42</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="15" customHeight="1">
+    <row r="275" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>166</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="15" customHeight="1">
+    <row r="276" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>8</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="15" customHeight="1">
+    <row r="277" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>28</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="15" customHeight="1">
+    <row r="278" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>8</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="15" customHeight="1">
+    <row r="279" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>8</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="15" customHeight="1">
+    <row r="280" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>8</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="15" customHeight="1">
+    <row r="281" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>8</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="15" customHeight="1">
+    <row r="282" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>19</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="15" customHeight="1">
+    <row r="283" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>42</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="15" customHeight="1">
+    <row r="284" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>19</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="15" customHeight="1">
+    <row r="285" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>8</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="15" customHeight="1">
+    <row r="286" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>8</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="15" customHeight="1">
+    <row r="287" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>19</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="15" customHeight="1">
+    <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>19</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="15" customHeight="1">
+    <row r="289" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>19</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="15" customHeight="1">
+    <row r="290" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>19</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="15" customHeight="1">
+    <row r="291" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>19</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="15" customHeight="1">
+    <row r="292" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>42</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="15" customHeight="1">
+    <row r="293" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>42</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="15" customHeight="1">
+    <row r="294" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>42</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="15" customHeight="1">
+    <row r="295" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>19</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="15" customHeight="1">
+    <row r="296" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>28</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="15" customHeight="1">
+    <row r="297" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>28</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="15" customHeight="1">
+    <row r="298" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>8</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="15" customHeight="1">
+    <row r="299" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>19</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="15" customHeight="1">
+    <row r="300" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>166</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="15" customHeight="1">
+    <row r="301" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>19</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="15" customHeight="1">
+    <row r="302" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>8</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="15" customHeight="1">
+    <row r="303" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>8</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="15" customHeight="1">
+    <row r="304" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>8</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="15" customHeight="1">
+    <row r="305" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>19</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="15" customHeight="1">
+    <row r="306" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>8</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="15" customHeight="1">
+    <row r="307" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>166</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="15" customHeight="1">
+    <row r="308" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>28</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="15" customHeight="1">
+    <row r="309" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>28</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="15" customHeight="1">
+    <row r="310" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>8</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="15" customHeight="1">
+    <row r="311" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>28</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="15" customHeight="1">
+    <row r="312" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>42</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="15" customHeight="1">
+    <row r="313" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>19</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="15" customHeight="1">
+    <row r="314" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>8</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="15" customHeight="1">
+    <row r="315" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>42</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="15" customHeight="1">
+    <row r="316" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>42</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="15" customHeight="1">
+    <row r="317" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>19</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="15" customHeight="1">
+    <row r="318" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>166</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="15" customHeight="1">
+    <row r="319" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>28</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="15" customHeight="1">
+    <row r="320" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>8</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="15" customHeight="1">
+    <row r="321" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>8</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="15" customHeight="1">
+    <row r="322" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>8</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="15" customHeight="1">
+    <row r="323" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>8</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="174">
+    <row r="324" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>797</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F329" s="3"/>
     </row>
   </sheetData>
@@ -11529,15 +11529,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="fdd2805e-7dec-4132-9e11-047fa92cfbc5">
@@ -11549,14 +11540,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4247DB88-D089-469B-9CCB-6D559D8D2738}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4247DB88-D089-469B-9CCB-6D559D8D2738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fdd2805e-7dec-4132-9e11-047fa92cfbc5"/>
+    <ds:schemaRef ds:uri="3fefc541-d965-4d49-b67b-48a4fcafe5e2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2AA869-5037-4FB5-A93F-42C87EA588A4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56152F09-7ABE-46E3-A6C5-16BE60705118}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fdd2805e-7dec-4132-9e11-047fa92cfbc5"/>
+    <ds:schemaRef ds:uri="3fefc541-d965-4d49-b67b-48a4fcafe5e2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56152F09-7ABE-46E3-A6C5-16BE60705118}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2AA869-5037-4FB5-A93F-42C87EA588A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>